--- a/examples/sbtab/ecoli_wortel_2018_model.xlsx
+++ b/examples/sbtab/ecoli_wortel_2018_model.xlsx
@@ -6342,10 +6342,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="437">
   <si>
-    <t>!!!ObjTables objTablesVersion='0.0.8' date='2020-03-09 15:32:45'</t>
-  </si>
-  <si>
-    <t>!!ObjTables type='Data' id='Compartment' name='Compartment' date='2020-03-09 15:32:45' objTablesVersion='0.0.8' document='ecoli_wortel_2018' tableFormat='row'</t>
+    <t>!!!ObjTables schema='SBtab' objTablesVersion='0.0.8' date='2020-03-10 00:00:05'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Compartment' name='Compartment' date='2020-03-10 00:00:05' objTablesVersion='0.0.8' document='ecoli_wortel_2018'</t>
   </si>
   <si>
     <t>!Comment</t>
@@ -6414,7 +6414,7 @@
     <t>external</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Compound' name='Compound' date='2020-03-09 15:32:45' objTablesVersion='0.0.8' document='ecoli_wortel_2018' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Compound' name='Compound' date='2020-03-10 00:00:05' objTablesVersion='0.0.8' document='ecoli_wortel_2018'</t>
   </si>
   <si>
     <t>!SBML:species:id</t>
@@ -6780,7 +6780,7 @@
     <t>XYL_5_P</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Definition' name='Definition' date='2020-03-09 15:32:45' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Definition' name='Definition' date='2020-03-10 00:00:05' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ComponentName</t>
@@ -6795,7 +6795,7 @@
     <t>!Format</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Enzyme' name='Enzyme' date='2020-03-09 15:32:45' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Enzyme' name='Enzyme' date='2020-03-10 00:00:05' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!CatalysedReaction</t>
@@ -6816,7 +6816,7 @@
     <t>!Gene</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='FbcObjective' name='FbcObjective' date='2020-03-09 15:32:45' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='FbcObjective' name='FbcObjective' date='2020-03-10 00:00:05' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:fbc:type</t>
@@ -6831,7 +6831,7 @@
     <t>!SBML:fbc:reaction</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Gene' name='Gene' date='2020-03-09 15:32:45' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Gene' name='Gene' date='2020-03-10 00:00:05' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!LocusName</t>
@@ -6861,7 +6861,7 @@
     <t>!SBML:fbc:Label</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Layout' name='Layout' date='2020-03-09 15:32:45' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Layout' name='Layout' date='2020-03-10 00:00:05' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:layout:modelEntity</t>
@@ -6897,7 +6897,7 @@
     <t>!SBML:layout:speciesRole</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Measurement' name='Measurement' date='2020-03-09 15:32:45' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Measurement' name='Measurement' date='2020-03-10 00:00:05' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Sample</t>
@@ -6909,7 +6909,7 @@
     <t>!ValueType</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='PbConfig' name='PbConfig' date='2020-03-09 15:32:45' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='PbConfig' name='PbConfig' date='2020-03-10 00:00:05' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Option</t>
@@ -6918,16 +6918,16 @@
     <t>!Value</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Position' name='Position' date='2020-03-09 15:32:45' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Position' name='Position' date='2020-03-10 00:00:05' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Element</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Protein' name='Protein' date='2020-03-09 15:32:45' objTablesVersion='0.0.8' tableFormat='row'</t>
-  </si>
-  <si>
-    <t>!!ObjTables type='Data' id='Quantity' name='Quantity' date='2020-03-09 15:32:45' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Protein' name='Protein' date='2020-03-10 00:00:05' objTablesVersion='0.0.8'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Quantity' name='Quantity' date='2020-03-10 00:00:05' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Quantity</t>
@@ -7089,7 +7089,7 @@
     <t>!Parameter:SBML:parameter:id</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='QuantityInfo' name='QuantityInfo' date='2020-03-09 15:32:45' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='QuantityInfo' name='QuantityInfo' date='2020-03-10 00:00:05' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Constant</t>
@@ -7107,7 +7107,7 @@
     <t>!SBMLElementType</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='QuantityMatrix' name='QuantityMatrix' date='2020-03-09 15:32:45' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='QuantityMatrix' name='QuantityMatrix' date='2020-03-10 00:00:05' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!&gt;Table:Column</t>
@@ -7146,7 +7146,7 @@
     <t>!&gt;TP:t1:std</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Reaction' name='Reaction' date='2020-03-09 15:32:45' objTablesVersion='0.0.8' document='ecoli_wortel_2018' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Reaction' name='Reaction' date='2020-03-10 00:00:05' objTablesVersion='0.0.8' document='ecoli_wortel_2018'</t>
   </si>
   <si>
     <t>!Modifier</t>
@@ -7524,7 +7524,7 @@
     <t>KDPG &lt;=&gt; GA_3P + PYR</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-03-09 15:32:45' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-03-10 00:00:05' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Stoichiometry</t>
@@ -7536,7 +7536,7 @@
     <t>!Product</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Regulator' name='Regulator' date='2020-03-09 15:32:45' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Regulator' name='Regulator' date='2020-03-10 00:00:05' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!TargetGene</t>
@@ -7548,7 +7548,7 @@
     <t>!TargetPromoter</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Relation' name='Relation' date='2020-03-09 15:32:45' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Relation' name='Relation' date='2020-03-10 00:00:05' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!From</t>
@@ -7563,13 +7563,13 @@
     <t>!Value:QuantityType</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Relationship' name='Relationship' date='2020-03-09 15:32:45' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Relationship' name='Relationship' date='2020-03-10 00:00:05' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Relation</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='SparseMatrix' name='SparseMatrix' date='2020-03-09 15:32:45' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrix' name='SparseMatrix' date='2020-03-10 00:00:05' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowID</t>
@@ -7578,13 +7578,13 @@
     <t>!ColumnID</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-03-09 15:32:45' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-03-10 00:00:05' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ColumnString</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-03-09 15:32:45' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-03-10 00:00:05' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowNumber</t>
@@ -7593,19 +7593,19 @@
     <t>!ColumnNumber</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='SparseMatrixRow' name='SparseMatrixRow' date='2020-03-09 15:32:45' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrixRow' name='SparseMatrixRow' date='2020-03-10 00:00:06' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowString</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-03-09 15:32:45' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-03-10 00:00:06' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ReactionID</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='rxnconContingencyList' name='rxnconContingencyList' date='2020-03-09 15:32:45' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='rxnconContingencyList' name='rxnconContingencyList' date='2020-03-10 00:00:06' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Contingency</t>
@@ -7626,7 +7626,7 @@
     <t>!InternalComplexID</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='rxnconReactionList' name='rxnconReactionList' date='2020-03-09 15:32:46' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='rxnconReactionList' name='rxnconReactionList' date='2020-03-10 00:00:06' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Reaction</t>

--- a/examples/sbtab/ecoli_wortel_2018_model.xlsx
+++ b/examples/sbtab/ecoli_wortel_2018_model.xlsx
@@ -6342,10 +6342,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="437">
   <si>
-    <t>!!!ObjTables schema='SBtab' objTablesVersion='0.0.8' date='2020-03-10 00:00:05'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Compartment' name='Compartment' date='2020-03-10 00:00:05' objTablesVersion='0.0.8' document='ecoli_wortel_2018'</t>
+    <t>!!!ObjTables schema='SBtab' objTablesVersion='0.0.9' date='2020-04-26 21:10:22'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Compartment' name='Compartment' date='2020-04-26 21:10:22' objTablesVersion='0.0.9' document='ecoli_wortel_2018'</t>
   </si>
   <si>
     <t>!Comment</t>
@@ -6414,7 +6414,7 @@
     <t>external</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Compound' name='Compound' date='2020-03-10 00:00:05' objTablesVersion='0.0.8' document='ecoli_wortel_2018'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Compound' name='Compound' date='2020-04-26 21:10:22' objTablesVersion='0.0.9' document='ecoli_wortel_2018'</t>
   </si>
   <si>
     <t>!SBML:species:id</t>
@@ -6780,7 +6780,7 @@
     <t>XYL_5_P</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Definition' name='Definition' date='2020-03-10 00:00:05' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Definition' name='Definition' date='2020-04-26 21:10:22' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!ComponentName</t>
@@ -6795,7 +6795,7 @@
     <t>!Format</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Enzyme' name='Enzyme' date='2020-03-10 00:00:05' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Enzyme' name='Enzyme' date='2020-04-26 21:10:22' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!CatalysedReaction</t>
@@ -6816,7 +6816,7 @@
     <t>!Gene</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='FbcObjective' name='FbcObjective' date='2020-03-10 00:00:05' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='FbcObjective' name='FbcObjective' date='2020-04-26 21:10:22' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!SBML:fbc:type</t>
@@ -6831,7 +6831,7 @@
     <t>!SBML:fbc:reaction</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Gene' name='Gene' date='2020-03-10 00:00:05' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Gene' name='Gene' date='2020-04-26 21:10:22' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!LocusName</t>
@@ -6861,7 +6861,7 @@
     <t>!SBML:fbc:Label</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Layout' name='Layout' date='2020-03-10 00:00:05' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Layout' name='Layout' date='2020-04-26 21:10:23' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!SBML:layout:modelEntity</t>
@@ -6897,7 +6897,7 @@
     <t>!SBML:layout:speciesRole</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Measurement' name='Measurement' date='2020-03-10 00:00:05' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Measurement' name='Measurement' date='2020-04-26 21:10:23' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Sample</t>
@@ -6909,7 +6909,7 @@
     <t>!ValueType</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='PbConfig' name='PbConfig' date='2020-03-10 00:00:05' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='PbConfig' name='PbConfig' date='2020-04-26 21:10:23' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Option</t>
@@ -6918,16 +6918,16 @@
     <t>!Value</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Position' name='Position' date='2020-03-10 00:00:05' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Position' name='Position' date='2020-04-26 21:10:23' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Element</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Protein' name='Protein' date='2020-03-10 00:00:05' objTablesVersion='0.0.8'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Quantity' name='Quantity' date='2020-03-10 00:00:05' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Protein' name='Protein' date='2020-04-26 21:10:23' objTablesVersion='0.0.9'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Quantity' name='Quantity' date='2020-04-26 21:10:23' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Quantity</t>
@@ -7089,7 +7089,7 @@
     <t>!Parameter:SBML:parameter:id</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='QuantityInfo' name='QuantityInfo' date='2020-03-10 00:00:05' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='QuantityInfo' name='QuantityInfo' date='2020-04-26 21:10:23' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Constant</t>
@@ -7107,7 +7107,7 @@
     <t>!SBMLElementType</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='QuantityMatrix' name='QuantityMatrix' date='2020-03-10 00:00:05' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='QuantityMatrix' name='QuantityMatrix' date='2020-04-26 21:10:23' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!&gt;Table:Column</t>
@@ -7146,7 +7146,7 @@
     <t>!&gt;TP:t1:std</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Reaction' name='Reaction' date='2020-03-10 00:00:05' objTablesVersion='0.0.8' document='ecoli_wortel_2018'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Reaction' name='Reaction' date='2020-04-26 21:10:23' objTablesVersion='0.0.9' document='ecoli_wortel_2018'</t>
   </si>
   <si>
     <t>!Modifier</t>
@@ -7524,7 +7524,7 @@
     <t>KDPG &lt;=&gt; GA_3P + PYR</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-03-10 00:00:05' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-04-26 21:10:23' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Stoichiometry</t>
@@ -7536,7 +7536,7 @@
     <t>!Product</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Regulator' name='Regulator' date='2020-03-10 00:00:05' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Regulator' name='Regulator' date='2020-04-26 21:10:23' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!TargetGene</t>
@@ -7548,13 +7548,13 @@
     <t>!TargetPromoter</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Relation' name='Relation' date='2020-03-10 00:00:05' objTablesVersion='0.0.8'</t>
-  </si>
-  <si>
-    <t>!From</t>
-  </si>
-  <si>
-    <t>!To</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Relation' name='Relation' date='2020-04-26 21:10:23' objTablesVersion='0.0.9'</t>
+  </si>
+  <si>
+    <t>!FromObject</t>
+  </si>
+  <si>
+    <t>!ToObject</t>
   </si>
   <si>
     <t>!IsSymmetric</t>
@@ -7563,13 +7563,13 @@
     <t>!Value:QuantityType</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Relationship' name='Relationship' date='2020-03-10 00:00:05' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Relationship' name='Relationship' date='2020-04-26 21:10:23' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Relation</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrix' name='SparseMatrix' date='2020-03-10 00:00:05' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrix' name='SparseMatrix' date='2020-04-26 21:10:23' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!RowID</t>
@@ -7578,13 +7578,13 @@
     <t>!ColumnID</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-03-10 00:00:05' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-04-26 21:10:23' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!ColumnString</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-03-10 00:00:05' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-04-26 21:10:23' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!RowNumber</t>
@@ -7593,19 +7593,19 @@
     <t>!ColumnNumber</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrixRow' name='SparseMatrixRow' date='2020-03-10 00:00:06' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrixRow' name='SparseMatrixRow' date='2020-04-26 21:10:23' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!RowString</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-03-10 00:00:06' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-04-26 21:10:23' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!ReactionID</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='rxnconContingencyList' name='rxnconContingencyList' date='2020-03-10 00:00:06' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='rxnconContingencyList' name='rxnconContingencyList' date='2020-04-26 21:10:23' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!UID:Contingency</t>
@@ -7626,7 +7626,7 @@
     <t>!InternalComplexID</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='rxnconReactionList' name='rxnconReactionList' date='2020-03-10 00:00:06' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='rxnconReactionList' name='rxnconReactionList' date='2020-04-26 21:10:23' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!UID:Reaction</t>
@@ -13904,10 +13904,10 @@
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Type of quantitative relation&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Type of quantitative relation&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="F2:F3">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="From" error="Element at beginning of arrow&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="From" prompt="Element at beginning of arrow&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="G2:G3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="To" error="Element at arrowhead&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="To" prompt="Element at arrowhead&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="H2:H3">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="FromObject" error="Element at beginning of arrow&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="FromObject" prompt="Element at beginning of arrow&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="G2:G3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ToObject" error="Element at arrowhead&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ToObject" prompt="Element at arrowhead&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="H2:H3">
       <formula1>255</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="IsSymmetric" error="Flag indicating non-symmetric relations&#10;&#10;Value must be &quot;True&quot; or &quot;False&quot;." promptTitle="IsSymmetric" prompt="Flag indicating non-symmetric relations&#10;&#10;Select &quot;True&quot; or &quot;False&quot;." sqref="I2:I3">
@@ -13979,10 +13979,10 @@
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="From" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="From" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="To" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="To" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="C2:C3">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="FromObject" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="FromObject" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ToObject" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ToObject" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="C2:C3">
       <formula1>255</formula1>
     </dataValidation>
     <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value" error="Value must be an integer." promptTitle="Value" prompt="Enter an integer." sqref="D2:D3">

--- a/examples/sbtab/ecoli_wortel_2018_model.xlsx
+++ b/examples/sbtab/ecoli_wortel_2018_model.xlsx
@@ -6342,10 +6342,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="248">
   <si>
-    <t>!!!ObjTables schema='SBtab' objTablesVersion='0.0.9' date='2020-04-27 01:12:49'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Compartment' name='Compartment' date='2020-04-27 01:12:49' objTablesVersion='0.0.9' document='ecoli_wortel_2018'</t>
+    <t>!!!ObjTables schema='SBtab' objTablesVersion='1.0.0' date='2020-05-29 00:26:46'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Compartment' name='Compartment' date='2019-01-04' objTablesVersion='1.0.0' document='ecoli_wortel_2018'</t>
   </si>
   <si>
     <t>!Name</t>
@@ -6363,7 +6363,7 @@
     <t>external</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Compound' name='Compound' date='2020-04-27 01:12:49' objTablesVersion='0.0.9' document='ecoli_wortel_2018'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Compound' name='Compound' date='2019-01-04' objTablesVersion='1.0.0' document='ecoli_wortel_2018'</t>
   </si>
   <si>
     <t>!InitialConcentration</t>
@@ -6681,43 +6681,43 @@
     <t>XYL_5_P</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Definition' name='Definition' date='2020-04-27 01:12:49' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Enzyme' name='Enzyme' date='2020-04-27 01:12:49' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='FbcObjective' name='FbcObjective' date='2020-04-27 01:12:49' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Gene' name='Gene' date='2020-04-27 01:12:50' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Layout' name='Layout' date='2020-04-27 01:12:50' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Measurement' name='Measurement' date='2020-04-27 01:12:50' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='PbConfig' name='PbConfig' date='2020-04-27 01:12:50' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Position' name='Position' date='2020-04-27 01:12:50' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Protein' name='Protein' date='2020-04-27 01:12:50' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Quantity' name='Quantity' date='2020-04-27 01:12:50' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='QuantityInfo' name='QuantityInfo' date='2020-04-27 01:12:50' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='QuantityMatrix' name='QuantityMatrix' date='2020-04-27 01:12:50' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Reaction' name='Reaction' date='2020-04-27 01:12:50' objTablesVersion='0.0.9' document='ecoli_wortel_2018'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Definition' name='Definition' date='2020-05-29 00:26:46' objTablesVersion='1.0.0'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Enzyme' name='Enzyme' date='2020-05-29 00:26:46' objTablesVersion='1.0.0'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='FbcObjective' name='FbcObjective' date='2020-05-29 00:26:46' objTablesVersion='1.0.0'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Gene' name='Gene' date='2020-05-29 00:26:46' objTablesVersion='1.0.0'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Layout' name='Layout' date='2020-05-29 00:26:46' objTablesVersion='1.0.0'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Measurement' name='Measurement' date='2020-05-29 00:26:46' objTablesVersion='1.0.0'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='PbConfig' name='PbConfig' date='2020-05-29 00:26:46' objTablesVersion='1.0.0'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Position' name='Position' date='2020-05-29 00:26:46' objTablesVersion='1.0.0'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Protein' name='Protein' date='2020-05-29 00:26:46' objTablesVersion='1.0.0'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Quantity' name='Quantity' date='2020-05-29 00:26:46' objTablesVersion='1.0.0'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='QuantityInfo' name='QuantityInfo' date='2020-05-29 00:26:46' objTablesVersion='1.0.0'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='QuantityMatrix' name='QuantityMatrix' date='2020-05-29 00:26:46' objTablesVersion='1.0.0'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Reaction' name='Reaction' date='2019-01-04' objTablesVersion='1.0.0' document='ecoli_wortel_2018'</t>
   </si>
   <si>
     <t>!ReactionFormula</t>
@@ -7053,37 +7053,37 @@
     <t>KDPG &lt;=&gt; GA_3P + PYR</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-04-27 01:12:50' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Regulator' name='Regulator' date='2020-04-27 01:12:50' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Relation' name='Relation' date='2020-04-27 01:12:50' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Relationship' name='Relationship' date='2020-04-27 01:12:50' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrix' name='SparseMatrix' date='2020-04-27 01:12:50' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-04-27 01:12:50' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-04-27 01:12:50' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrixRow' name='SparseMatrixRow' date='2020-04-27 01:12:50' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-04-27 01:12:50' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='rxnconContingencyList' name='rxnconContingencyList' date='2020-04-27 01:12:50' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='rxnconReactionList' name='rxnconReactionList' date='2020-04-27 01:12:50' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-05-29 00:26:46' objTablesVersion='1.0.0'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Regulator' name='Regulator' date='2020-05-29 00:26:46' objTablesVersion='1.0.0'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Relation' name='Relation' date='2020-05-29 00:26:46' objTablesVersion='1.0.0'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Relationship' name='Relationship' date='2020-05-29 00:26:46' objTablesVersion='1.0.0'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrix' name='SparseMatrix' date='2020-05-29 00:26:46' objTablesVersion='1.0.0'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-05-29 00:26:46' objTablesVersion='1.0.0'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-05-29 00:26:46' objTablesVersion='1.0.0'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrixRow' name='SparseMatrixRow' date='2020-05-29 00:26:46' objTablesVersion='1.0.0'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-05-29 00:26:46' objTablesVersion='1.0.0'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='rxnconContingencyList' name='rxnconContingencyList' date='2020-05-29 00:26:46' objTablesVersion='1.0.0'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='rxnconReactionList' name='rxnconReactionList' date='2020-05-29 00:26:46' objTablesVersion='1.0.0'</t>
   </si>
 </sst>
 </file>
